--- a/ARL_codes.xlsx
+++ b/ARL_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{007DF93B-8EDE-471D-8D4A-515F6DE592C2}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31EEBFF2-D811-4C70-876E-B31F2BF1F312}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>hogdn</t>
+  </si>
+  <si>
+    <t>left in fridge before freezing</t>
   </si>
 </sst>
 </file>
@@ -422,18 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F042B6C-1EE5-438E-A77F-883058178C6E}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159:C172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -467,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -484,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -501,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -518,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -535,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -552,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -569,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -586,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -603,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -620,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -637,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -654,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -671,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -688,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -705,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -722,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -739,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -756,7 +760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -773,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -790,7 +794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -807,7 +811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -824,7 +828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -841,7 +845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -858,7 +862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -875,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -892,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -909,7 +913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -924,6 +928,2053 @@
       </c>
       <c r="E29">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44140</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44084</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44084</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44084</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44084</v>
+      </c>
+      <c r="E59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44127</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44127</v>
+      </c>
+      <c r="E84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44127</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>44127</v>
+      </c>
+      <c r="E88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44126</v>
+      </c>
+      <c r="E89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44277</v>
+      </c>
+      <c r="E144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="b">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="b">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="b">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="b">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="b">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="b">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44305</v>
+      </c>
+      <c r="E172">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/ARL_codes.xlsx
+++ b/ARL_codes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31EEBFF2-D811-4C70-876E-B31F2BF1F312}"/>
+  <xr:revisionPtr revIDLastSave="733" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F123D1EB-ECCB-4BDB-BD67-EAEDFD2D8541}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
+    <workbookView xWindow="12495" yWindow="2445" windowWidth="9495" windowHeight="11055" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -51,25 +51,25 @@
     <t>ARL_code</t>
   </si>
   <si>
-    <t>hogup</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
     <t>swbup</t>
   </si>
   <si>
     <t>posnw16</t>
   </si>
   <si>
-    <t>swb</t>
+    <t>hat</t>
   </si>
   <si>
     <t>tum441</t>
   </si>
   <si>
+    <t>swb</t>
+  </si>
+  <si>
     <t>hogdn</t>
+  </si>
+  <si>
+    <t>hogup</t>
   </si>
   <si>
     <t>left in fridge before freezing</t>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,13 +104,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,19 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F042B6C-1EE5-438E-A77F-883058178C6E}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159:C172"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,9 +465,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -471,9 +482,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -488,9 +499,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -505,9 +516,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -522,9 +533,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -539,9 +550,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -556,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -573,9 +584,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -590,9 +601,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -607,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -624,9 +635,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -641,9 +652,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -658,9 +669,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -675,9 +686,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -692,9 +703,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -709,9 +720,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -726,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -743,9 +754,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -760,9 +771,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -777,7 +788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -794,9 +805,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -811,9 +822,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -828,9 +839,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -845,9 +856,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -862,9 +873,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -879,9 +890,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -896,9 +907,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -913,9 +924,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -930,9 +941,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -947,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -964,9 +975,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -981,9 +992,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -998,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1015,9 +1026,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -1032,9 +1043,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1049,9 +1060,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -1066,9 +1077,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -1083,9 +1094,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -1100,9 +1111,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
@@ -1117,9 +1128,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -1134,9 +1145,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
@@ -1151,9 +1162,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
@@ -1168,7 +1179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1182,9 +1193,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
@@ -1196,9 +1207,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -1210,9 +1221,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
@@ -1224,7 +1235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1238,9 +1249,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -1252,9 +1263,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -1266,9 +1277,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -1280,9 +1291,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -1294,9 +1305,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -1308,9 +1319,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -1322,9 +1333,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
@@ -1336,9 +1347,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -1350,9 +1361,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -1364,9 +1375,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -1378,9 +1389,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -1392,9 +1403,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -1406,9 +1417,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
@@ -1420,9 +1431,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -1434,9 +1445,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
@@ -1448,9 +1459,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -1462,9 +1473,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
@@ -1476,7 +1487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1490,9 +1501,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -1504,9 +1515,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -1518,9 +1529,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
@@ -1532,9 +1543,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
@@ -1546,9 +1557,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -1560,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1574,9 +1585,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -1588,9 +1599,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -1602,9 +1613,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -1616,9 +1627,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -1630,9 +1641,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -1644,9 +1655,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
@@ -1658,9 +1669,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
@@ -1672,9 +1683,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -1686,7 +1697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1700,9 +1711,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -1714,9 +1725,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -1728,9 +1739,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -1742,7 +1753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1756,9 +1767,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -1770,9 +1781,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
@@ -1784,9 +1795,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
@@ -1798,9 +1809,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
@@ -1812,7 +1823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -1826,9 +1837,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -1840,9 +1851,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -1854,9 +1865,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -1868,9 +1879,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" t="b">
         <v>0</v>
@@ -1882,9 +1893,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -1896,9 +1907,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -1910,7 +1921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -1924,9 +1935,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
@@ -1938,9 +1949,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="b">
         <v>0</v>
@@ -1952,9 +1963,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B100" t="b">
         <v>0</v>
@@ -1966,9 +1977,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B101" t="b">
         <v>0</v>
@@ -1980,9 +1991,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B102" t="b">
         <v>0</v>
@@ -1994,9 +2005,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B103" t="b">
         <v>0</v>
@@ -2008,9 +2019,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" t="b">
         <v>0</v>
@@ -2022,9 +2033,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B105" t="b">
         <v>0</v>
@@ -2036,7 +2047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2050,9 +2061,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B107" t="b">
         <v>0</v>
@@ -2064,9 +2075,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B108" t="b">
         <v>0</v>
@@ -2078,9 +2089,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109" t="b">
         <v>0</v>
@@ -2092,9 +2103,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B110" t="b">
         <v>1</v>
@@ -2106,9 +2117,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
@@ -2120,9 +2131,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
@@ -2134,7 +2145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2148,9 +2159,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B114" t="b">
         <v>1</v>
@@ -2162,9 +2173,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B115" t="b">
         <v>1</v>
@@ -2176,9 +2187,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" t="b">
         <v>1</v>
@@ -2190,9 +2201,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B117" t="b">
         <v>1</v>
@@ -2207,7 +2218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2221,9 +2232,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B119" t="b">
         <v>1</v>
@@ -2235,9 +2246,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
@@ -2249,9 +2260,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
@@ -2263,9 +2274,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B122" t="b">
         <v>0</v>
@@ -2277,9 +2288,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B123" t="b">
         <v>1</v>
@@ -2291,9 +2302,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" t="b">
         <v>1</v>
@@ -2305,9 +2316,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B125" t="b">
         <v>1</v>
@@ -2319,7 +2330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2333,9 +2344,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
@@ -2347,9 +2358,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B128" t="b">
         <v>0</v>
@@ -2361,9 +2372,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B129" t="b">
         <v>1</v>
@@ -2375,9 +2386,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B130" t="b">
         <v>0</v>
@@ -2389,9 +2400,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B131" t="b">
         <v>1</v>
@@ -2403,7 +2414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2417,9 +2428,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B133" t="b">
         <v>0</v>
@@ -2431,9 +2442,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B134" t="b">
         <v>0</v>
@@ -2445,9 +2456,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B135" t="b">
         <v>1</v>
@@ -2459,9 +2470,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B136" t="b">
         <v>1</v>
@@ -2473,9 +2484,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B137" t="b">
         <v>0</v>
@@ -2487,9 +2498,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B138" t="b">
         <v>0</v>
@@ -2501,9 +2512,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B139" t="b">
         <v>1</v>
@@ -2515,9 +2526,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B140" t="b">
         <v>1</v>
@@ -2529,9 +2540,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B141" t="b">
         <v>0</v>
@@ -2543,9 +2554,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B142" t="b">
         <v>0</v>
@@ -2557,9 +2568,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B143" t="b">
         <v>1</v>
@@ -2571,7 +2582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -2585,9 +2596,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B145" t="b">
         <v>1</v>
@@ -2599,9 +2610,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B146" t="b">
         <v>1</v>
@@ -2613,9 +2624,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B147" t="b">
         <v>0</v>
@@ -2627,9 +2638,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B148" t="b">
         <v>1</v>
@@ -2641,9 +2652,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B149" t="b">
         <v>0</v>
@@ -2655,7 +2666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2669,9 +2680,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B151" t="b">
         <v>0</v>
@@ -2683,9 +2694,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B152" t="b">
         <v>0</v>
@@ -2697,9 +2708,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B153" t="b">
         <v>1</v>
@@ -2711,9 +2722,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B154" t="b">
         <v>0</v>
@@ -2725,9 +2736,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B155" t="b">
         <v>0</v>
@@ -2739,9 +2750,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B156" t="b">
         <v>1</v>
@@ -2753,7 +2764,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -2767,9 +2778,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B158" t="b">
         <v>1</v>
@@ -2781,9 +2792,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B159" t="b">
         <v>0</v>
@@ -2795,9 +2806,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B160" t="b">
         <v>1</v>
@@ -2809,9 +2820,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B161" t="b">
         <v>1</v>
@@ -2823,9 +2834,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" t="b">
         <v>0</v>
@@ -2837,7 +2848,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -2851,9 +2862,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B164" t="b">
         <v>1</v>
@@ -2865,9 +2876,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B165" t="b">
         <v>0</v>
@@ -2879,9 +2890,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B166" t="b">
         <v>1</v>
@@ -2893,9 +2904,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="b">
         <v>0</v>
@@ -2907,9 +2918,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B168" t="b">
         <v>0</v>
@@ -2921,9 +2932,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B169" t="b">
         <v>0</v>
@@ -2935,9 +2946,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B170" t="b">
         <v>1</v>
@@ -2949,7 +2960,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -2963,18 +2974,775 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172" s="3">
+        <v>44305</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
         <v>8</v>
       </c>
-      <c r="B172" t="b">
-        <v>1</v>
-      </c>
-      <c r="C172" s="1">
-        <v>44305</v>
-      </c>
-      <c r="E172">
-        <v>171</v>
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="b">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="b">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="b">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="b">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="b">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="b">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="b">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="b">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="b">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="b">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="b">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="b">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="b">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="b">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="b">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" t="b">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="b">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" t="b">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="b">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E226">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/ARL_codes.xlsx
+++ b/ARL_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="733" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F123D1EB-ECCB-4BDB-BD67-EAEDFD2D8541}"/>
+  <xr:revisionPtr revIDLastSave="852" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAF05CC-BA06-46EF-9BB3-849F52438DA3}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="2445" windowWidth="9495" windowHeight="11055" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,19 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F042B6C-1EE5-438E-A77F-883058178C6E}">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -652,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -703,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -720,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -805,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -856,7 +856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -873,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -890,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -907,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -941,7 +941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -958,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -992,7 +992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -3743,6 +3743,426 @@
       </c>
       <c r="E226">
         <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" t="b">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44368</v>
+      </c>
+      <c r="E228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="b">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="b">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" t="b">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+      <c r="C234" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" t="b">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" t="b">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+      <c r="C238" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="b">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+      <c r="C240" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="b">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>44383</v>
+      </c>
+      <c r="E242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+      <c r="C244" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" t="b">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="b">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+      <c r="C247" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+      <c r="C248" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+      <c r="C249" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+      <c r="C250" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="b">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="b">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+      <c r="C253" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" t="b">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" t="b">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" t="b">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1">
+        <v>44397</v>
+      </c>
+      <c r="E256">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
